--- a/biology/Médecine/Étienne_Royer_de_Véricourt/Étienne_Royer_de_Véricourt.xlsx
+++ b/biology/Médecine/Étienne_Royer_de_Véricourt/Étienne_Royer_de_Véricourt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Royer_de_V%C3%A9ricourt</t>
+          <t>Étienne_Royer_de_Véricourt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Étienne Royer de Véricourt, né à Paris le 6 août 1905 où il est décédé le 25 janvier 1997[1], est un médecin (cardiologie et médecine du travail) et un homme politique français (tendance démocratie chrétienne).
+Étienne Royer de Véricourt, né à Paris le 6 août 1905 où il est décédé le 25 janvier 1997, est un médecin (cardiologie et médecine du travail) et un homme politique français (tendance démocratie chrétienne).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Royer_de_V%C3%A9ricourt</t>
+          <t>Étienne_Royer_de_Véricourt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1921, il adhère au mouvement de la Jeune République, courant catholique social, créé par Marc Sangnier dont il devient un proche (et le cardiologue).
 Pendant la Seconde Guerre mondiale, il participe à la Résistance au sein de l'OCM (Organisation civile et militaire) et du réseau du père Riquet. 
-Pendant cette période, il participe notamment à la diffusion du journal Témoignage chrétien[2].
-Conseiller municipal de Paris (MRP puis Centre démocrate) de 1947 à 1977, date du changement de statut de la Ville de Paris. Étienne de Véricourt est élu président du Conseil de Paris le 25 juin 1969 [3],[4].
-Au cours de son mandat, il accueille les astronautes d'Apollo 11, Neil Armstrong, Buzz Aldrin et Michael Collins, lors de leur venue à Paris le 8 octobre 1969. Après son discours, Étienne de Véricourt leur remet la  médaille de vermeil de la Ville de Paris[5]. 
-Le 24 août 1969, il participe au 25e anniversaire de la Libération[6].
+Pendant cette période, il participe notamment à la diffusion du journal Témoignage chrétien.
+Conseiller municipal de Paris (MRP puis Centre démocrate) de 1947 à 1977, date du changement de statut de la Ville de Paris. Étienne de Véricourt est élu président du Conseil de Paris le 25 juin 1969 ,.
+Au cours de son mandat, il accueille les astronautes d'Apollo 11, Neil Armstrong, Buzz Aldrin et Michael Collins, lors de leur venue à Paris le 8 octobre 1969. Après son discours, Étienne de Véricourt leur remet la  médaille de vermeil de la Ville de Paris. 
+Le 24 août 1969, il participe au 25e anniversaire de la Libération.
 Parmi ses autres fonctions, on citera : vice-président du Conseil général de la Seine (1950-1951), vice-président du Conseil municipal de Paris en 1955-1956, 1957-1958 et 1961-1962, rapporteur général du budget de l’Assistance publique de 1965 à 1971, membre du conseil d’administration du district de la Région parisienne de 1961 à 1971, conseiller régional d’Île-de-France en 1976-1977.
 </t>
         </is>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Royer_de_V%C3%A9ricourt</t>
+          <t>Étienne_Royer_de_Véricourt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Croix de guerre 1939-1945
 Officier de l'ordre de la Légion d'honneur (1955)
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Royer_de_V%C3%A9ricourt</t>
+          <t>Étienne_Royer_de_Véricourt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Ouvrages et publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le syndrome endocrino-hepato-myocardique: Sur un aspect des cirrhoses pigmentaires, Paris, 1936, Masson et Ci.
 Cinquantenaire de L’Hôpital Henri Rousselle, 1922-1972, Imprimerie-Reliure Maison Mame, Tours, Laboratoires Sandoz, 1973. Sous la direction de Georges Daumezon.</t>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Royer_de_V%C3%A9ricourt</t>
+          <t>Étienne_Royer_de_Véricourt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Liste des présidents du conseil municipal de Paris</t>
         </is>
